--- a/PDFExtraction/result.xlsx
+++ b/PDFExtraction/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Katashiki</x:t>
   </x:si>
@@ -46,33 +46,38 @@
     <x:t>GUN125R-DTTSX 06740</x:t>
   </x:si>
   <x:si>
-    <x:t>KS / S</x:t>
+    <x:t>KS/S</x:t>
   </x:si>
   <x:si>
     <x:t>2UCME7</x:t>
   </x:si>
   <x:si>
+    <x:t>HILUX DC 4X4, A/T, 4 DRS, DSL,
+5 SEATER,
+CC Rating: 2393, Cylinders: 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27,265.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KS / P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2UCME9</x:t>
+  </x:si>
+  <x:si>
     <x:t>HILUX DC 4X4, A/T, 4 DRS, DSL, 5 SEATER, CC Rating: 2393, Cylinders: 4</x:t>
   </x:si>
   <x:si>
-    <x:t>18.009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27,265.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KS / P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2UCME9</x:t>
-  </x:si>
-  <x:si>
     <x:t>27,357.00</x:t>
   </x:si>
   <x:si>
@@ -85,9 +90,7 @@
     <x:t>2UCMF4</x:t>
   </x:si>
   <x:si>
-    <x:t>HILUX DC 4X4, A/T.
-4 DRS, DSL, 5 SEATER,
-CC Rating: 2755, Cylinders: 4</x:t>
+    <x:t>HILUX DC 4X4, A/T, 4 DRS, DSL, 5 SEATER, CC Rating: 2755, Cylinders: 4</x:t>
   </x:si>
   <x:si>
     <x:t>18.397</x:t>
@@ -102,11 +105,6 @@
     <x:t>2UCMF6</x:t>
   </x:si>
   <x:si>
-    <x:t>HILUX DC 4X4, A/T,
-4 DRS, DSL, 5 SEATER,
-CC Rating: 2755, Cylinders: 4</x:t>
-  </x:si>
-  <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
@@ -122,9 +120,6 @@
     <x:t>2UCMF9</x:t>
   </x:si>
   <x:si>
-    <x:t>HILUX DC 4X4, A/T, 4 DRS, DSL, 5 SEATER, CC Rating: 2755, Cylinders: 4</x:t>
-  </x:si>
-  <x:si>
     <x:t>26,613.00</x:t>
   </x:si>
   <x:si>
@@ -167,12 +162,12 @@
     <x:t>21,068.00</x:t>
   </x:si>
   <x:si>
+    <x:t>A4/P</x:t>
+  </x:si>
+  <x:si>
     <x:t>354623</x:t>
   </x:si>
   <x:si>
-    <x:t>COROLLA CROSS, 2WD, 4-DR SUV. A/T, GAS, 5-SEATER, CC Rating: 1798, Cylinders: 4</x:t>
-  </x:si>
-  <x:si>
     <x:t>52.888</x:t>
   </x:si>
   <x:si>
@@ -188,13 +183,13 @@
     <x:t>ZVG10R-DHXEB 88540</x:t>
   </x:si>
   <x:si>
-    <x:t>BE / P</x:t>
+    <x:t>BE/F</x:t>
   </x:si>
   <x:si>
     <x:t>354625</x:t>
   </x:si>
   <x:si>
-    <x:t>COROLLA CROSS HV, 2WD, 4-DR SUV, A/T, 5-SEATER, CC Rating: 1798, Cylinders: 4</x:t>
+    <x:t>COROLLA CROSS HV, 2WD, 4-DR SUV, AT, 5-SEATER, CC Rating: 1798, Cylinders: 4</x:t>
   </x:si>
   <x:si>
     <x:t>26.444</x:t>
@@ -210,9 +205,6 @@
   </x:si>
   <x:si>
     <x:t>105,110.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A4/P</x:t>
   </x:si>
   <x:si>
     <x:t>355360</x:t>
@@ -641,7 +633,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>13</x:v>
@@ -653,27 +645,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>15</x:v>
@@ -682,27 +674,27 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>29</x:v>
@@ -728,7 +720,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>13</x:v>
@@ -740,114 +732,114 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="s">
+      <x:c r="I7" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>51</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="s">
+      <x:c r="I9" s="0" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>59</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>14</x:v>
@@ -856,68 +848,68 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="C11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
